--- a/Final Report/Report.xlsx
+++ b/Final Report/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robson/Desktop/CareerFoundry/Data Immersion/Achivement 4/19-04-2024 Instacart Basket Analysis/05 Sent to client/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robson/Desktop/Portfolio - Github/Instacart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A84DE65-C659-DF43-9905-243C48592CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC7B53-2E36-504F-935C-F31987D51ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Title Page" sheetId="1" r:id="rId1"/>
@@ -641,9 +641,6 @@
     </r>
   </si>
   <si>
-    <t>Customers tend to spend more between 04am to 08 am and 8pm until 10pm. Thus, these times could be used to advertise more expensive products, while the rest of the day could be focused on inexpensive products.</t>
-  </si>
-  <si>
     <t>New Customer: Below 10 orders.</t>
   </si>
   <si>
@@ -737,6 +734,9 @@
   </si>
   <si>
     <t>via Kaggle on April 24, 2024</t>
+  </si>
+  <si>
+    <t>Prices tend to be higher between 04am to 08 am and 8pm until 10pm. Thus, these times could be used to advertise more expensive products, while the rest of the day could be focused on inexpensive products.</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1615,6 +1615,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1639,13 +1645,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -17595,50 +17594,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>79374</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37206</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1728C0-CB4D-A9FF-0EEC-15AEFDE6CF56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="79374" y="2619374"/>
-          <a:ext cx="4259957" cy="3444875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>60131</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>149129</xdr:rowOff>
@@ -17663,7 +17618,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17707,7 +17662,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17751,7 +17706,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17760,50 +17715,6 @@
         <a:xfrm>
           <a:off x="5048250" y="12541250"/>
           <a:ext cx="3568700" cy="2870200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>490680</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>624309</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>25158</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90EB5936-96B3-5D7A-06AB-D7FCE3327659}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4839468" y="2809394"/>
-          <a:ext cx="3983183" cy="3180916"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17839,7 +17750,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17883,7 +17794,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17892,50 +17803,6 @@
         <a:xfrm>
           <a:off x="3915834" y="17856970"/>
           <a:ext cx="3390900" cy="4102100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>67349</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>9621</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>548538</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>57728</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02231D1-F50A-5209-4301-94BCC5A249B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="67349" y="23725909"/>
-          <a:ext cx="4156492" cy="3319319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17971,7 +17838,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -18015,7 +17882,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -18059,7 +17926,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -18103,7 +17970,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -18112,6 +17979,138 @@
         <a:xfrm>
           <a:off x="6734495" y="35711467"/>
           <a:ext cx="5925730" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>117339</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>148617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>78515</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0D21B2-F326-B7B9-9ABD-299A194CDC28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="117339" y="1661808"/>
+          <a:ext cx="4325112" cy="3499211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594469</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>772758</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>181930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536C3307-E8F8-4F5A-2319-BA586C3B9B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4958405" y="1891490"/>
+          <a:ext cx="4015310" cy="3208312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>162127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>397113</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>21854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F6B7E4-1F16-D53A-4687-063A83F0E3F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22170957"/>
+          <a:ext cx="4085517" cy="3264408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18388,7 +18387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B13:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -18445,7 +18444,7 @@
     </row>
     <row r="25" spans="2:13" ht="19">
       <c r="B25" s="72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="73"/>
       <c r="D25" s="73"/>
@@ -18461,7 +18460,7 @@
     </row>
     <row r="26" spans="2:13" ht="19">
       <c r="B26" s="75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="76"/>
@@ -18477,7 +18476,7 @@
     </row>
     <row r="27" spans="2:13" ht="19">
       <c r="B27" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="76"/>
       <c r="D27" s="76"/>
@@ -18493,7 +18492,7 @@
     </row>
     <row r="28" spans="2:13" ht="19">
       <c r="B28" s="75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" s="76"/>
       <c r="D28" s="76"/>
@@ -18509,7 +18508,7 @@
     </row>
     <row r="29" spans="2:13" ht="19">
       <c r="B29" s="78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="76"/>
       <c r="D29" s="76"/>
@@ -19240,10 +19239,10 @@
       <c r="E27" s="40"/>
     </row>
     <row r="28" spans="2:8" ht="17">
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="83"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="57" t="s">
         <v>110</v>
       </c>
@@ -19305,10 +19304,10 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="17">
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="83"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="56" t="s">
         <v>115</v>
       </c>
@@ -19358,8 +19357,7 @@
       <c r="D33" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="90"/>
-      <c r="F33" s="92"/>
+      <c r="E33" s="82"/>
     </row>
     <row r="34" spans="2:8" ht="17">
       <c r="B34" s="56" t="s">
@@ -19374,15 +19372,15 @@
       <c r="E34" s="59">
         <v>30964564</v>
       </c>
-      <c r="F34" s="91"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="60"/>
       <c r="H34" s="60"/>
     </row>
     <row r="35" spans="2:8" ht="17">
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="83"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="56" t="s">
         <v>120</v>
       </c>
@@ -19443,10 +19441,10 @@
       <c r="H38" s="60"/>
     </row>
     <row r="39" spans="2:8" ht="17">
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="83"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="56" t="s">
         <v>125</v>
       </c>
@@ -19507,10 +19505,10 @@
       <c r="H42" s="60"/>
     </row>
     <row r="43" spans="2:8" ht="17">
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="83"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="56" t="s">
         <v>130</v>
       </c>
@@ -19571,10 +19569,10 @@
       <c r="H46" s="60"/>
     </row>
     <row r="47" spans="2:8" ht="17">
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="83"/>
+      <c r="C47" s="85"/>
       <c r="D47" s="56" t="s">
         <v>137</v>
       </c>
@@ -19637,10 +19635,10 @@
       <c r="H50" s="60"/>
     </row>
     <row r="51" spans="2:8" ht="34">
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="83"/>
+      <c r="C51" s="85"/>
       <c r="D51" s="56" t="s">
         <v>144</v>
       </c>
@@ -19686,10 +19684,10 @@
       <c r="H53" s="60"/>
     </row>
     <row r="54" spans="2:8" ht="17">
-      <c r="B54" s="82" t="s">
+      <c r="B54" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="83"/>
+      <c r="C54" s="85"/>
       <c r="D54" s="55" t="s">
         <v>146</v>
       </c>
@@ -19735,10 +19733,10 @@
       <c r="H56" s="60"/>
     </row>
     <row r="57" spans="2:8" ht="17">
-      <c r="B57" s="82" t="s">
+      <c r="B57" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="83"/>
+      <c r="C57" s="85"/>
       <c r="D57" s="56" t="s">
         <v>134</v>
       </c>
@@ -19845,8 +19843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:U272"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:Q2"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="94" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -19877,7 +19875,7 @@
     </row>
     <row r="8" spans="2:17">
       <c r="B8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:17" ht="21" customHeight="1">
@@ -19886,24 +19884,24 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="29" customHeight="1">
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" t="s">
@@ -19912,7 +19910,7 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="2:17">
@@ -19921,28 +19919,28 @@
       </c>
     </row>
     <row r="57" spans="2:17">
-      <c r="B57" s="87" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="87"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
-      <c r="Q57" s="87"/>
+      <c r="B57" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="89"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="89"/>
+      <c r="Q57" s="89"/>
     </row>
     <row r="59" spans="2:17">
       <c r="B59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="2:17">
@@ -20035,76 +20033,76 @@
     </row>
     <row r="79" spans="2:17">
       <c r="B79" s="65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="2:17" ht="28" customHeight="1">
-      <c r="B80" s="87" t="s">
+      <c r="B80" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="87"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="87"/>
-      <c r="H80" s="87"/>
-      <c r="I80" s="87"/>
-      <c r="J80" s="87"/>
-      <c r="K80" s="87"/>
-      <c r="L80" s="87"/>
-      <c r="M80" s="87"/>
-      <c r="N80" s="87"/>
-      <c r="O80" s="87"/>
-      <c r="P80" s="87"/>
-      <c r="Q80" s="87"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="89"/>
+      <c r="J80" s="89"/>
+      <c r="K80" s="89"/>
+      <c r="L80" s="89"/>
+      <c r="M80" s="89"/>
+      <c r="N80" s="89"/>
+      <c r="O80" s="89"/>
+      <c r="P80" s="89"/>
+      <c r="Q80" s="89"/>
     </row>
     <row r="81" spans="2:17" ht="27" customHeight="1">
-      <c r="B81" s="87" t="s">
+      <c r="B81" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="87"/>
-      <c r="I81" s="87"/>
-      <c r="J81" s="87"/>
-      <c r="K81" s="87"/>
-      <c r="L81" s="87"/>
-      <c r="M81" s="87"/>
-      <c r="N81" s="87"/>
-      <c r="O81" s="87"/>
-      <c r="P81" s="87"/>
-      <c r="Q81" s="87"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="89"/>
+      <c r="F81" s="89"/>
+      <c r="G81" s="89"/>
+      <c r="H81" s="89"/>
+      <c r="I81" s="89"/>
+      <c r="J81" s="89"/>
+      <c r="K81" s="89"/>
+      <c r="L81" s="89"/>
+      <c r="M81" s="89"/>
+      <c r="N81" s="89"/>
+      <c r="O81" s="89"/>
+      <c r="P81" s="89"/>
+      <c r="Q81" s="89"/>
     </row>
     <row r="83" spans="2:17">
       <c r="B83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="2:17">
       <c r="K86" s="42"/>
-      <c r="L86" s="84" t="s">
+      <c r="L86" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="M86" s="85"/>
-      <c r="N86" s="85"/>
-      <c r="O86" s="86"/>
+      <c r="M86" s="87"/>
+      <c r="N86" s="87"/>
+      <c r="O86" s="88"/>
     </row>
     <row r="87" spans="2:17">
       <c r="K87" s="42"/>
       <c r="L87" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="M87" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="M87" s="42" t="s">
+      <c r="N87" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="N87" s="42" t="s">
+      <c r="O87" s="42" t="s">
         <v>178</v>
-      </c>
-      <c r="O87" s="42" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="88" spans="2:17">
@@ -20176,93 +20174,93 @@
     </row>
     <row r="105" spans="2:17">
       <c r="B105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="2:17">
       <c r="B106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="2:17">
       <c r="B107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="2:17" ht="21" customHeight="1">
       <c r="B109" s="65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17" ht="29" customHeight="1">
+      <c r="B110" s="90" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="110" spans="2:17" ht="29" customHeight="1">
-      <c r="B110" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="C110" s="87"/>
-      <c r="D110" s="87"/>
-      <c r="E110" s="87"/>
-      <c r="F110" s="87"/>
-      <c r="G110" s="87"/>
-      <c r="H110" s="87"/>
-      <c r="I110" s="87"/>
-      <c r="J110" s="87"/>
-      <c r="K110" s="87"/>
-      <c r="L110" s="87"/>
-      <c r="M110" s="87"/>
-      <c r="N110" s="87"/>
-      <c r="O110" s="87"/>
-      <c r="P110" s="87"/>
-      <c r="Q110" s="87"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="89"/>
+      <c r="H110" s="89"/>
+      <c r="I110" s="89"/>
+      <c r="J110" s="89"/>
+      <c r="K110" s="89"/>
+      <c r="L110" s="89"/>
+      <c r="M110" s="89"/>
+      <c r="N110" s="89"/>
+      <c r="O110" s="89"/>
+      <c r="P110" s="89"/>
+      <c r="Q110" s="89"/>
     </row>
     <row r="112" spans="2:17">
       <c r="B112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="2:20" ht="38" customHeight="1">
-      <c r="B132" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C132" s="89"/>
-      <c r="D132" s="89"/>
-      <c r="E132" s="89"/>
-      <c r="F132" s="89"/>
-      <c r="G132" s="89"/>
-      <c r="H132" s="89"/>
-      <c r="I132" s="89"/>
-      <c r="J132" s="89"/>
-      <c r="K132" s="89"/>
-      <c r="L132" s="89"/>
-      <c r="M132" s="89"/>
-      <c r="N132" s="89"/>
-      <c r="O132" s="89"/>
-      <c r="P132" s="89"/>
-      <c r="Q132" s="89"/>
-      <c r="R132" s="89"/>
-      <c r="S132" s="89"/>
-      <c r="T132" s="89"/>
+      <c r="B132" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="C132" s="91"/>
+      <c r="D132" s="91"/>
+      <c r="E132" s="91"/>
+      <c r="F132" s="91"/>
+      <c r="G132" s="91"/>
+      <c r="H132" s="91"/>
+      <c r="I132" s="91"/>
+      <c r="J132" s="91"/>
+      <c r="K132" s="91"/>
+      <c r="L132" s="91"/>
+      <c r="M132" s="91"/>
+      <c r="N132" s="91"/>
+      <c r="O132" s="91"/>
+      <c r="P132" s="91"/>
+      <c r="Q132" s="91"/>
+      <c r="R132" s="91"/>
+      <c r="S132" s="91"/>
+      <c r="T132" s="91"/>
     </row>
     <row r="133" spans="2:20">
-      <c r="B133" s="88"/>
-      <c r="C133" s="87"/>
-      <c r="D133" s="87"/>
-      <c r="E133" s="87"/>
-      <c r="F133" s="87"/>
-      <c r="G133" s="87"/>
-      <c r="H133" s="87"/>
-      <c r="I133" s="87"/>
-      <c r="J133" s="87"/>
-      <c r="K133" s="87"/>
-      <c r="L133" s="87"/>
-      <c r="M133" s="87"/>
-      <c r="N133" s="87"/>
-      <c r="O133" s="87"/>
-      <c r="P133" s="87"/>
-      <c r="Q133" s="87"/>
+      <c r="B133" s="90"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="89"/>
+      <c r="E133" s="89"/>
+      <c r="F133" s="89"/>
+      <c r="G133" s="89"/>
+      <c r="H133" s="89"/>
+      <c r="I133" s="89"/>
+      <c r="J133" s="89"/>
+      <c r="K133" s="89"/>
+      <c r="L133" s="89"/>
+      <c r="M133" s="89"/>
+      <c r="N133" s="89"/>
+      <c r="O133" s="89"/>
+      <c r="P133" s="89"/>
+      <c r="Q133" s="89"/>
     </row>
     <row r="134" spans="2:20">
       <c r="B134" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="2:20">
@@ -20318,7 +20316,7 @@
     </row>
     <row r="140" spans="2:20">
       <c r="I140" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J140" s="44">
         <v>334641</v>
@@ -20352,7 +20350,7 @@
     </row>
     <row r="142" spans="2:20">
       <c r="I142" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J142" s="44">
         <v>996451</v>
@@ -20369,7 +20367,7 @@
     </row>
     <row r="143" spans="2:20">
       <c r="I143" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J143" s="44">
         <v>329781</v>
@@ -20386,7 +20384,7 @@
     </row>
     <row r="144" spans="2:20">
       <c r="I144" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J144" s="44">
         <v>326278</v>
@@ -20488,22 +20486,22 @@
     </row>
     <row r="153" spans="9:13">
       <c r="I153" s="42"/>
-      <c r="J153" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="K153" s="85"/>
-      <c r="L153" s="86"/>
+      <c r="J153" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="K153" s="87"/>
+      <c r="L153" s="88"/>
     </row>
     <row r="154" spans="9:13">
       <c r="I154" s="42"/>
       <c r="J154" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="K154" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="K154" s="42" t="s">
+      <c r="L154" s="42" t="s">
         <v>177</v>
-      </c>
-      <c r="L154" s="42" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="155" spans="9:13">
@@ -20572,26 +20570,26 @@
     </row>
     <row r="163" spans="2:20">
       <c r="I163" s="42"/>
-      <c r="J163" s="84" t="s">
+      <c r="J163" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="K163" s="85"/>
-      <c r="L163" s="85"/>
-      <c r="M163" s="86"/>
+      <c r="K163" s="87"/>
+      <c r="L163" s="87"/>
+      <c r="M163" s="88"/>
     </row>
     <row r="164" spans="2:20">
       <c r="I164" s="42"/>
       <c r="J164" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="K164" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="K164" s="42" t="s">
+      <c r="L164" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="L164" s="42" t="s">
+      <c r="M164" s="42" t="s">
         <v>178</v>
-      </c>
-      <c r="M164" s="42" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="165" spans="2:20">
@@ -20672,55 +20670,55 @@
       </c>
     </row>
     <row r="174" spans="2:20" ht="62" customHeight="1">
-      <c r="B174" s="89" t="s">
-        <v>187</v>
-      </c>
-      <c r="C174" s="89"/>
-      <c r="D174" s="89"/>
-      <c r="E174" s="89"/>
-      <c r="F174" s="89"/>
-      <c r="G174" s="89"/>
-      <c r="H174" s="89"/>
-      <c r="I174" s="89"/>
-      <c r="J174" s="89"/>
-      <c r="K174" s="89"/>
-      <c r="L174" s="89"/>
-      <c r="M174" s="89"/>
-      <c r="N174" s="89"/>
-      <c r="O174" s="89"/>
-      <c r="P174" s="89"/>
-      <c r="Q174" s="89"/>
-      <c r="R174" s="89"/>
-      <c r="S174" s="89"/>
-      <c r="T174" s="89"/>
+      <c r="B174" s="91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C174" s="91"/>
+      <c r="D174" s="91"/>
+      <c r="E174" s="91"/>
+      <c r="F174" s="91"/>
+      <c r="G174" s="91"/>
+      <c r="H174" s="91"/>
+      <c r="I174" s="91"/>
+      <c r="J174" s="91"/>
+      <c r="K174" s="91"/>
+      <c r="L174" s="91"/>
+      <c r="M174" s="91"/>
+      <c r="N174" s="91"/>
+      <c r="O174" s="91"/>
+      <c r="P174" s="91"/>
+      <c r="Q174" s="91"/>
+      <c r="R174" s="91"/>
+      <c r="S174" s="91"/>
+      <c r="T174" s="91"/>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="201" spans="3:7">
       <c r="C201" s="42"/>
-      <c r="D201" s="84" t="s">
+      <c r="D201" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="E201" s="85"/>
-      <c r="F201" s="85"/>
-      <c r="G201" s="86"/>
+      <c r="E201" s="87"/>
+      <c r="F201" s="87"/>
+      <c r="G201" s="88"/>
     </row>
     <row r="202" spans="3:7">
       <c r="C202" s="42"/>
       <c r="D202" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E202" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="E202" s="42" t="s">
+      <c r="F202" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="F202" s="42" t="s">
+      <c r="G202" s="42" t="s">
         <v>178</v>
-      </c>
-      <c r="G202" s="42" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="203" spans="3:7">
@@ -21821,27 +21819,27 @@
       </c>
     </row>
     <row r="272" spans="3:21" ht="131" customHeight="1">
-      <c r="C272" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="D272" s="89"/>
-      <c r="E272" s="89"/>
-      <c r="F272" s="89"/>
-      <c r="G272" s="89"/>
-      <c r="H272" s="89"/>
-      <c r="I272" s="89"/>
-      <c r="J272" s="89"/>
-      <c r="K272" s="89"/>
-      <c r="L272" s="89"/>
-      <c r="M272" s="89"/>
-      <c r="N272" s="89"/>
-      <c r="O272" s="89"/>
-      <c r="P272" s="89"/>
-      <c r="Q272" s="89"/>
-      <c r="R272" s="89"/>
-      <c r="S272" s="89"/>
-      <c r="T272" s="89"/>
-      <c r="U272" s="89"/>
+      <c r="C272" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="D272" s="91"/>
+      <c r="E272" s="91"/>
+      <c r="F272" s="91"/>
+      <c r="G272" s="91"/>
+      <c r="H272" s="91"/>
+      <c r="I272" s="91"/>
+      <c r="J272" s="91"/>
+      <c r="K272" s="91"/>
+      <c r="L272" s="91"/>
+      <c r="M272" s="91"/>
+      <c r="N272" s="91"/>
+      <c r="O272" s="91"/>
+      <c r="P272" s="91"/>
+      <c r="Q272" s="91"/>
+      <c r="R272" s="91"/>
+      <c r="S272" s="91"/>
+      <c r="T272" s="91"/>
+      <c r="U272" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="13">
